--- a/dados/valor_de_clube_por_temporada_com_pontos.xlsx
+++ b/dados/valor_de_clube_por_temporada_com_pontos.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944097108bdea8f7/Documentos/Leo_estudos/Faculdade/alessio/Projeto/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944097108bdea8f7/Documentos/Leo_estudos/Faculdade/alessio/Previsao_DePontosBrasileirao-SerieA/Previsao_DePontosBrasileirao-SerieA/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{E657EF77-E624-43DF-8925-526D6FC4A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE3513B-5ABA-4F27-AE95-5B17F665173B}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{E657EF77-E624-43DF-8925-526D6FC4A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3918C99A-A976-46B1-BC9D-46281CF79C84}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3648CDFF-AE4B-4D19-BB82-D1E4168CA091}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3648CDFF-AE4B-4D19-BB82-D1E4168CA091}"/>
   </bookViews>
   <sheets>
     <sheet name="todos_clubes_serieA" sheetId="2" r:id="rId1"/>
     <sheet name="CRUD" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">todos_clubes_serieA!$A$1:$G$121</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="97">
   <si>
     <t>Clube</t>
   </si>
@@ -156,9 +157,6 @@
   </si>
   <si>
     <t>Mirassol FC</t>
-  </si>
-  <si>
-    <t>Pontos</t>
   </si>
   <si>
     <t>Time</t>
@@ -304,6 +302,45 @@
   <si>
     <t>Time_ajustado</t>
   </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>CLUBE</t>
+  </si>
+  <si>
+    <t>PONTOS</t>
+  </si>
+  <si>
+    <t>Atlético-PR</t>
+  </si>
+  <si>
+    <t>Figueirense</t>
+  </si>
+  <si>
+    <t>Ponte Preta</t>
+  </si>
+  <si>
+    <t>Joinville</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Paraná</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>Red Bull Bragantino</t>
+  </si>
+  <si>
+    <t>Goías</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +457,7 @@
     <tableColumn id="9" xr3:uid="{3004D451-C997-40F3-9B69-9C51B204E66E}" uniqueName="9" name="Chave" queryTableFieldId="9" dataDxfId="1">
       <calculatedColumnFormula>todos_clubes_serieA[[#This Row],[Time_ajustado]]&amp;todos_clubes_serieA[[#This Row],[Temporada]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5C9AA4C0-18E6-4783-9931-7DAF24C4A753}" uniqueName="10" name="Pontos" queryTableFieldId="10" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{5C9AA4C0-18E6-4783-9931-7DAF24C4A753}" uniqueName="10" name="Coluna1" queryTableFieldId="10" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(_xlfn.XLOOKUP(todos_clubes_serieA[[#This Row],[Chave]],CRUD!R:R,CRUD!P:P),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -747,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E45A76D-3D63-423D-AFE6-AA49A84DADF8}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5010,7 +5047,7 @@
   <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5027,34 +5064,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
-        <v>43</v>
-      </c>
       <c r="R1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -5072,7 +5109,7 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>38</v>
@@ -5118,7 +5155,7 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>38</v>
@@ -5164,7 +5201,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>38</v>
@@ -5210,7 +5247,7 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>38</v>
@@ -5256,7 +5293,7 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>38</v>
@@ -5302,7 +5339,7 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>38</v>
@@ -5348,7 +5385,7 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>38</v>
@@ -5394,7 +5431,7 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>38</v>
@@ -5440,7 +5477,7 @@
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10">
         <v>38</v>
@@ -5486,7 +5523,7 @@
         <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>38</v>
@@ -5532,7 +5569,7 @@
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>38</v>
@@ -5578,7 +5615,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>38</v>
@@ -5624,7 +5661,7 @@
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>38</v>
@@ -5670,7 +5707,7 @@
         <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>38</v>
@@ -5716,7 +5753,7 @@
         <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J16">
         <v>38</v>
@@ -5762,7 +5799,7 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>38</v>
@@ -5808,7 +5845,7 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18">
         <v>38</v>
@@ -5854,7 +5891,7 @@
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19">
         <v>38</v>
@@ -5869,7 +5906,7 @@
         <v>19</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19">
         <v>-22</v>
@@ -5900,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20">
         <v>38</v>
@@ -5946,7 +5983,7 @@
         <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21">
         <v>38</v>
@@ -5961,7 +5998,7 @@
         <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21">
         <v>-30</v>
@@ -5986,28 +6023,28 @@
         <v>Juventude</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
       </c>
       <c r="J22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" t="s">
         <v>38</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>39</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>40</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>41</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>42</v>
-      </c>
-      <c r="O22" t="s">
-        <v>43</v>
       </c>
       <c r="R22" t="str">
         <f t="shared" si="1"/>
@@ -6029,7 +6066,7 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>38</v>
@@ -6075,7 +6112,7 @@
         <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>38</v>
@@ -6121,7 +6158,7 @@
         <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25">
         <v>38</v>
@@ -6167,7 +6204,7 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>38</v>
@@ -6213,7 +6250,7 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27">
         <v>38</v>
@@ -6259,7 +6296,7 @@
         <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>38</v>
@@ -6305,7 +6342,7 @@
         <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>38</v>
@@ -6341,7 +6378,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30">
         <v>8</v>
@@ -6350,7 +6387,7 @@
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J30">
         <v>38</v>
@@ -6389,7 +6426,7 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <v>38</v>
@@ -6428,7 +6465,7 @@
         <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32">
         <v>38</v>
@@ -6467,7 +6504,7 @@
         <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>38</v>
@@ -6506,7 +6543,7 @@
         <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34">
         <v>38</v>
@@ -6545,7 +6582,7 @@
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>38</v>
@@ -6584,7 +6621,7 @@
         <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36">
         <v>38</v>
@@ -6623,7 +6660,7 @@
         <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J37">
         <v>38</v>
@@ -6662,7 +6699,7 @@
         <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J38">
         <v>38</v>
@@ -6701,7 +6738,7 @@
         <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39">
         <v>38</v>
@@ -6740,7 +6777,7 @@
         <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J40">
         <v>38</v>
@@ -6779,7 +6816,7 @@
         <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J41">
         <v>38</v>
@@ -6833,7 +6870,7 @@
         <v>25</v>
       </c>
       <c r="N42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O42">
         <v>-40</v>
@@ -6857,28 +6894,28 @@
     </row>
     <row r="44" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
         <v>0</v>
       </c>
       <c r="J44" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" t="s">
         <v>38</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>39</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>40</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>41</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>42</v>
-      </c>
-      <c r="O44" t="s">
-        <v>43</v>
       </c>
       <c r="R44" t="str">
         <f t="shared" si="1"/>
@@ -6893,7 +6930,7 @@
         <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>38</v>
@@ -6932,7 +6969,7 @@
         <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J46">
         <v>38</v>
@@ -6971,7 +7008,7 @@
         <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J47">
         <v>38</v>
@@ -7010,7 +7047,7 @@
         <v>7</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J48">
         <v>38</v>
@@ -7049,7 +7086,7 @@
         <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>38</v>
@@ -7088,7 +7125,7 @@
         <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J50">
         <v>38</v>
@@ -7127,7 +7164,7 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>38</v>
@@ -7166,7 +7203,7 @@
         <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J52">
         <v>38</v>
@@ -7205,7 +7242,7 @@
         <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J53">
         <v>38</v>
@@ -7244,7 +7281,7 @@
         <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J54">
         <v>38</v>
@@ -7283,7 +7320,7 @@
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J55">
         <v>38</v>
@@ -7322,7 +7359,7 @@
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J56">
         <v>38</v>
@@ -7361,7 +7398,7 @@
         <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J57">
         <v>38</v>
@@ -7400,7 +7437,7 @@
         <v>26</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>38</v>
@@ -7439,7 +7476,7 @@
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J59">
         <v>38</v>
@@ -7454,7 +7491,7 @@
         <v>20</v>
       </c>
       <c r="N59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O59">
         <v>-21</v>
@@ -7478,7 +7515,7 @@
         <v>28</v>
       </c>
       <c r="I60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J60">
         <v>38</v>
@@ -7517,7 +7554,7 @@
         <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>38</v>
@@ -7556,7 +7593,7 @@
         <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J62">
         <v>38</v>
@@ -7595,7 +7632,7 @@
         <v>31</v>
       </c>
       <c r="I63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J63">
         <v>38</v>
@@ -7610,7 +7647,7 @@
         <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O63">
         <v>-26</v>
@@ -7634,7 +7671,7 @@
         <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J64">
         <v>38</v>
@@ -7649,7 +7686,7 @@
         <v>22</v>
       </c>
       <c r="N64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O64">
         <v>-40</v>
@@ -7673,28 +7710,28 @@
     </row>
     <row r="66" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H66" t="s">
         <v>0</v>
       </c>
       <c r="J66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" t="s">
         <v>38</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>39</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>40</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>41</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>42</v>
-      </c>
-      <c r="O66" t="s">
-        <v>43</v>
       </c>
       <c r="R66" t="str">
         <f t="shared" si="1"/>
@@ -7709,7 +7746,7 @@
         <v>9</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J67">
         <v>38</v>
@@ -7748,7 +7785,7 @@
         <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J68">
         <v>38</v>
@@ -7787,7 +7824,7 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>38</v>
@@ -7826,7 +7863,7 @@
         <v>8</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>38</v>
@@ -7865,7 +7902,7 @@
         <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J71">
         <v>38</v>
@@ -7904,7 +7941,7 @@
         <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>38</v>
@@ -7943,7 +7980,7 @@
         <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>38</v>
@@ -7982,7 +8019,7 @@
         <v>19</v>
       </c>
       <c r="I74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J74">
         <v>38</v>
@@ -8021,7 +8058,7 @@
         <v>11</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J75">
         <v>38</v>
@@ -8060,7 +8097,7 @@
         <v>25</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J76">
         <v>38</v>
@@ -8099,7 +8136,7 @@
         <v>13</v>
       </c>
       <c r="I77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J77">
         <v>38</v>
@@ -8138,7 +8175,7 @@
         <v>28</v>
       </c>
       <c r="I78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J78">
         <v>38</v>
@@ -8177,7 +8214,7 @@
         <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>38</v>
@@ -8216,7 +8253,7 @@
         <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J80">
         <v>38</v>
@@ -8255,7 +8292,7 @@
         <v>16</v>
       </c>
       <c r="I81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J81">
         <v>38</v>
@@ -8294,7 +8331,7 @@
         <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J82">
         <v>38</v>
@@ -8333,7 +8370,7 @@
         <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>38</v>
@@ -8348,7 +8385,7 @@
         <v>17</v>
       </c>
       <c r="N83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O83">
         <v>-25</v>
@@ -8372,7 +8409,7 @@
         <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J84">
         <v>38</v>
@@ -8411,7 +8448,7 @@
         <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J85">
         <v>38</v>
@@ -8426,7 +8463,7 @@
         <v>24</v>
       </c>
       <c r="N85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O85">
         <v>-32</v>
@@ -8450,7 +8487,7 @@
         <v>29</v>
       </c>
       <c r="I86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J86">
         <v>38</v>
@@ -8465,7 +8502,7 @@
         <v>24</v>
       </c>
       <c r="N86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O86">
         <v>-39</v>
@@ -8489,28 +8526,28 @@
     </row>
     <row r="88" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H88" t="s">
         <v>0</v>
       </c>
       <c r="J88" t="s">
+        <v>37</v>
+      </c>
+      <c r="K88" t="s">
         <v>38</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>39</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>40</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>41</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>42</v>
-      </c>
-      <c r="O88" t="s">
-        <v>43</v>
       </c>
       <c r="R88" t="str">
         <f t="shared" si="2"/>
@@ -8525,7 +8562,7 @@
         <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J89">
         <v>38</v>
@@ -8564,7 +8601,7 @@
         <v>9</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>38</v>
@@ -8603,7 +8640,7 @@
         <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>38</v>
@@ -8642,7 +8679,7 @@
         <v>25</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J92">
         <v>38</v>
@@ -8681,7 +8718,7 @@
         <v>11</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>38</v>
@@ -8720,7 +8757,7 @@
         <v>13</v>
       </c>
       <c r="I94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>38</v>
@@ -8759,7 +8796,7 @@
         <v>7</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J95">
         <v>38</v>
@@ -8798,7 +8835,7 @@
         <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J96">
         <v>38</v>
@@ -8837,7 +8874,7 @@
         <v>32</v>
       </c>
       <c r="I97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J97">
         <v>38</v>
@@ -8876,7 +8913,7 @@
         <v>16</v>
       </c>
       <c r="I98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J98">
         <v>38</v>
@@ -8915,7 +8952,7 @@
         <v>34</v>
       </c>
       <c r="I99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J99">
         <v>38</v>
@@ -8954,7 +8991,7 @@
         <v>10</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>38</v>
@@ -8993,7 +9030,7 @@
         <v>21</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>38</v>
@@ -9032,7 +9069,7 @@
         <v>12</v>
       </c>
       <c r="I102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J102">
         <v>38</v>
@@ -9071,7 +9108,7 @@
         <v>27</v>
       </c>
       <c r="I103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J103">
         <v>38</v>
@@ -9110,7 +9147,7 @@
         <v>26</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>38</v>
@@ -9149,7 +9186,7 @@
         <v>19</v>
       </c>
       <c r="I105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J105">
         <v>38</v>
@@ -9188,7 +9225,7 @@
         <v>33</v>
       </c>
       <c r="I106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J106">
         <v>38</v>
@@ -9203,7 +9240,7 @@
         <v>18</v>
       </c>
       <c r="N106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O106">
         <v>-19</v>
@@ -9227,7 +9264,7 @@
         <v>24</v>
       </c>
       <c r="I107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>38</v>
@@ -9266,7 +9303,7 @@
         <v>28</v>
       </c>
       <c r="I108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J108">
         <v>38</v>
@@ -9295,6 +9332,2428 @@
       <c r="R108" t="str">
         <f t="shared" si="2"/>
         <v>Cuiabá2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5362C5C-782B-4EAB-959E-C95EFC10C4BF}">
+  <dimension ref="A1:C219"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2014</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2014</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2014</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2015</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2015</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2015</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2015</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2015</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2015</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2015</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2015</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2015</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2015</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2015</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2015</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2015</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2015</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2015</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2015</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2016</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2016</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2016</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2016</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2016</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2016</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2016</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2016</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2016</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2016</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2016</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2016</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2016</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2016</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2016</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2016</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2016</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2016</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2016</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2016</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2017</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2017</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2017</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2017</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2017</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2017</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2017</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2017</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2017</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2017</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2017</v>
+      </c>
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2017</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2017</v>
+      </c>
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2017</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2017</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2017</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2017</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2017</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2017</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2017</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2018</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2018</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2018</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2018</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2018</v>
+      </c>
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2018</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2018</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2018</v>
+      </c>
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2018</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2018</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2018</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2018</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2018</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2018</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2018</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2018</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2018</v>
+      </c>
+      <c r="B98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2018</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2018</v>
+      </c>
+      <c r="B100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2018</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2019</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2019</v>
+      </c>
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2019</v>
+      </c>
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2019</v>
+      </c>
+      <c r="B105" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2019</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2019</v>
+      </c>
+      <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2019</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2019</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2019</v>
+      </c>
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2019</v>
+      </c>
+      <c r="B111" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2019</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2019</v>
+      </c>
+      <c r="B113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2019</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2019</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2019</v>
+      </c>
+      <c r="B116" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2019</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2019</v>
+      </c>
+      <c r="B118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2019</v>
+      </c>
+      <c r="B119" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2019</v>
+      </c>
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2019</v>
+      </c>
+      <c r="B121" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2020</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2020</v>
+      </c>
+      <c r="B123" t="s">
+        <v>53</v>
+      </c>
+      <c r="C123">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2020</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2020</v>
+      </c>
+      <c r="B125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2020</v>
+      </c>
+      <c r="B126" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2020</v>
+      </c>
+      <c r="B127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2020</v>
+      </c>
+      <c r="B128" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2020</v>
+      </c>
+      <c r="B129" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2020</v>
+      </c>
+      <c r="B130" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2020</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2020</v>
+      </c>
+      <c r="B132" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2020</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2020</v>
+      </c>
+      <c r="B134" t="s">
+        <v>50</v>
+      </c>
+      <c r="C134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2020</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2020</v>
+      </c>
+      <c r="B136" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2020</v>
+      </c>
+      <c r="B137" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2020</v>
+      </c>
+      <c r="B138" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2020</v>
+      </c>
+      <c r="B139" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2020</v>
+      </c>
+      <c r="B140" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2020</v>
+      </c>
+      <c r="B141" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2021</v>
+      </c>
+      <c r="B142" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2021</v>
+      </c>
+      <c r="B143" t="s">
+        <v>44</v>
+      </c>
+      <c r="C143">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2021</v>
+      </c>
+      <c r="B144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2021</v>
+      </c>
+      <c r="B145" t="s">
+        <v>46</v>
+      </c>
+      <c r="C145">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2021</v>
+      </c>
+      <c r="B146" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2021</v>
+      </c>
+      <c r="B147" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2021</v>
+      </c>
+      <c r="B148" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2021</v>
+      </c>
+      <c r="B149" t="s">
+        <v>68</v>
+      </c>
+      <c r="C149">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2021</v>
+      </c>
+      <c r="B150" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2021</v>
+      </c>
+      <c r="B151" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2021</v>
+      </c>
+      <c r="B152" t="s">
+        <v>52</v>
+      </c>
+      <c r="C152">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2021</v>
+      </c>
+      <c r="B153" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2021</v>
+      </c>
+      <c r="B154" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2021</v>
+      </c>
+      <c r="B155" t="s">
+        <v>55</v>
+      </c>
+      <c r="C155">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2021</v>
+      </c>
+      <c r="B156" t="s">
+        <v>67</v>
+      </c>
+      <c r="C156">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2021</v>
+      </c>
+      <c r="B157" t="s">
+        <v>66</v>
+      </c>
+      <c r="C157">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2021</v>
+      </c>
+      <c r="B158" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2021</v>
+      </c>
+      <c r="B159" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2021</v>
+      </c>
+      <c r="B160" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2021</v>
+      </c>
+      <c r="B161" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2022</v>
+      </c>
+      <c r="B162" t="s">
+        <v>45</v>
+      </c>
+      <c r="C162">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2022</v>
+      </c>
+      <c r="B163" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2022</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2022</v>
+      </c>
+      <c r="B165" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2022</v>
+      </c>
+      <c r="B166" t="s">
+        <v>44</v>
+      </c>
+      <c r="C166">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2022</v>
+      </c>
+      <c r="B167" t="s">
+        <v>55</v>
+      </c>
+      <c r="C167">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2022</v>
+      </c>
+      <c r="B168" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2022</v>
+      </c>
+      <c r="B169" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2022</v>
+      </c>
+      <c r="B170" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2022</v>
+      </c>
+      <c r="B171" t="s">
+        <v>68</v>
+      </c>
+      <c r="C171">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2022</v>
+      </c>
+      <c r="B172" t="s">
+        <v>64</v>
+      </c>
+      <c r="C172">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2022</v>
+      </c>
+      <c r="B173" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2022</v>
+      </c>
+      <c r="B174" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2022</v>
+      </c>
+      <c r="B175" t="s">
+        <v>78</v>
+      </c>
+      <c r="C175">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2022</v>
+      </c>
+      <c r="B176" t="s">
+        <v>67</v>
+      </c>
+      <c r="C176">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2022</v>
+      </c>
+      <c r="B177" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2022</v>
+      </c>
+      <c r="B178" t="s">
+        <v>50</v>
+      </c>
+      <c r="C178">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2022</v>
+      </c>
+      <c r="B179" t="s">
+        <v>66</v>
+      </c>
+      <c r="C179">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2023</v>
+      </c>
+      <c r="B180" t="s">
+        <v>45</v>
+      </c>
+      <c r="C180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2023</v>
+      </c>
+      <c r="B181" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2023</v>
+      </c>
+      <c r="B182" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2023</v>
+      </c>
+      <c r="B183" t="s">
+        <v>44</v>
+      </c>
+      <c r="C183">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2023</v>
+      </c>
+      <c r="B184" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2023</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2023</v>
+      </c>
+      <c r="B186" t="s">
+        <v>49</v>
+      </c>
+      <c r="C186">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2023</v>
+      </c>
+      <c r="B187" t="s">
+        <v>55</v>
+      </c>
+      <c r="C187">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2023</v>
+      </c>
+      <c r="B188" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2023</v>
+      </c>
+      <c r="B189" t="s">
+        <v>46</v>
+      </c>
+      <c r="C189">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2023</v>
+      </c>
+      <c r="B190" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2023</v>
+      </c>
+      <c r="B191" t="s">
+        <v>67</v>
+      </c>
+      <c r="C191">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2023</v>
+      </c>
+      <c r="B192" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2023</v>
+      </c>
+      <c r="B193" t="s">
+        <v>70</v>
+      </c>
+      <c r="C193">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2023</v>
+      </c>
+      <c r="B194" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2023</v>
+      </c>
+      <c r="B195" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2023</v>
+      </c>
+      <c r="B196" t="s">
+        <v>51</v>
+      </c>
+      <c r="C196">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2023</v>
+      </c>
+      <c r="B197" t="s">
+        <v>96</v>
+      </c>
+      <c r="C197">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2023</v>
+      </c>
+      <c r="B198" t="s">
+        <v>78</v>
+      </c>
+      <c r="C198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2023</v>
+      </c>
+      <c r="B199" t="s">
+        <v>68</v>
+      </c>
+      <c r="C199">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2024</v>
+      </c>
+      <c r="B200" t="s">
+        <v>43</v>
+      </c>
+      <c r="C200">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2024</v>
+      </c>
+      <c r="B201" t="s">
+        <v>45</v>
+      </c>
+      <c r="C201">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2024</v>
+      </c>
+      <c r="B202" t="s">
+        <v>44</v>
+      </c>
+      <c r="C202">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2024</v>
+      </c>
+      <c r="B203" t="s">
+        <v>64</v>
+      </c>
+      <c r="C203">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2024</v>
+      </c>
+      <c r="B204" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2024</v>
+      </c>
+      <c r="B205" t="s">
+        <v>56</v>
+      </c>
+      <c r="C205">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2024</v>
+      </c>
+      <c r="B206" t="s">
+        <v>46</v>
+      </c>
+      <c r="C206">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2024</v>
+      </c>
+      <c r="B207" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2024</v>
+      </c>
+      <c r="B208" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2024</v>
+      </c>
+      <c r="B209" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2024</v>
+      </c>
+      <c r="B210" t="s">
+        <v>70</v>
+      </c>
+      <c r="C210">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2024</v>
+      </c>
+      <c r="B211" t="s">
+        <v>55</v>
+      </c>
+      <c r="C211">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2024</v>
+      </c>
+      <c r="B212" t="s">
+        <v>49</v>
+      </c>
+      <c r="C212">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2024</v>
+      </c>
+      <c r="B213" t="s">
+        <v>67</v>
+      </c>
+      <c r="C213">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2024</v>
+      </c>
+      <c r="B214" t="s">
+        <v>57</v>
+      </c>
+      <c r="C214">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2024</v>
+      </c>
+      <c r="B215" t="s">
+        <v>61</v>
+      </c>
+      <c r="C215">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2024</v>
+      </c>
+      <c r="B216" t="s">
+        <v>51</v>
+      </c>
+      <c r="C216">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2024</v>
+      </c>
+      <c r="B217" t="s">
+        <v>66</v>
+      </c>
+      <c r="C217">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2024</v>
+      </c>
+      <c r="B218" t="s">
+        <v>72</v>
+      </c>
+      <c r="C218">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2024</v>
+      </c>
+      <c r="B219" t="s">
+        <v>71</v>
+      </c>
+      <c r="C219">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
